--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>商店id</t>
   </si>
@@ -31,6 +31,12 @@
     <t>SellRelicList</t>
   </si>
   <si>
+    <t>2,3,4,25,33,102</t>
+  </si>
+  <si>
+    <t>25,33,102,103,104,105,106,107,108,109,110</t>
+  </si>
+  <si>
     <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
   </si>
 </sst>
@@ -67,6 +73,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -76,52 +98,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,17 +119,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +134,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -182,16 +188,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,132 +225,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,36 +400,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +410,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,6 +458,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -448,30 +478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +516,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +528,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,7 +982,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1020,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -1031,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -1042,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -1053,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -1064,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -1075,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -1086,7 +1092,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -1097,7 +1103,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -1108,7 +1114,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1119,7 +1125,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1130,7 +1136,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>11</v>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -31,10 +31,10 @@
     <t>SellRelicList</t>
   </si>
   <si>
-    <t>2,3,4,25,33,102</t>
+    <t>2,3,4,25,33,102,116</t>
   </si>
   <si>
-    <t>25,33,102,103,104,105,106,107,108,109,110</t>
+    <t>25,33,102,103,104,105,106,107,108,109,110,114,115</t>
   </si>
   <si>
     <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -59,6 +59,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -66,46 +96,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,68 +166,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -189,22 +197,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +225,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -237,6 +243,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -249,49 +339,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,42 +381,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,48 +400,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,36 +424,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,20 +452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,151 +477,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,7 +982,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -31,10 +31,10 @@
     <t>SellRelicList</t>
   </si>
   <si>
-    <t>2,3,4,25,33,102,116</t>
+    <t>2,3,4,22,102,105,120,121,122</t>
   </si>
   <si>
-    <t>25,33,102,103,104,105,106,107,108,109,110,114,115</t>
+    <t>107,108,109,110,111,112,113,114,115,116,117,118,119</t>
   </si>
   <si>
     <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -59,16 +59,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,76 +90,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,45 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +219,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,41 +413,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,26 +433,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,161 +455,214 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -982,12 +985,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="51.375" customWidth="1"/>
+    <col min="2" max="2" width="75.25" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1025,7 +1028,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4">

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>商店id</t>
   </si>
@@ -34,7 +34,13 @@
     <t>2,3,4,22,102,105,120,121,122</t>
   </si>
   <si>
-    <t>107,108,109,110,111,112,113,114,115,116,117,118,119</t>
+    <t>108,109,112,113,114,115,116,120,121</t>
+  </si>
+  <si>
+    <t>112,113,114,115,116,121,123,124,125</t>
+  </si>
+  <si>
+    <t>103,107,110,111,117,118,119,126,127</t>
   </si>
   <si>
     <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
@@ -46,9 +52,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -59,10 +65,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,8 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,121 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +225,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -237,61 +345,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,91 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,11 +419,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,9 +466,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,182 +508,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -985,7 +994,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1039,7 +1048,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5">
@@ -1050,8 +1059,8 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -1062,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -1073,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -1084,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -1095,7 +1104,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -1106,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -1117,7 +1126,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1128,7 +1137,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1139,7 +1148,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>11</v>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,13 @@
     <t>2,3,4,22,102,105,120,121,122</t>
   </si>
   <si>
-    <t>108,109,112,113,114,115,116,120,121</t>
+    <t>108,109,112,113,114,115,116,120,121,130,131,133,137,138,141,142</t>
   </si>
   <si>
-    <t>112,113,114,115,116,121,123,124,125</t>
+    <t>112,113,114,115,116,121,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
   </si>
   <si>
-    <t>103,107,110,111,117,118,119,126,127</t>
+    <t>103,107,110,111,117,118,143,144,145,146,147,148,149,150,151,152,153,154,155</t>
   </si>
   <si>
     <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
@@ -52,9 +52,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -65,8 +65,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,91 +88,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,11 +134,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,9 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +195,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +225,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,169 +321,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,21 +464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -471,6 +471,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,169 +516,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,10 +994,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="75.25" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,13 @@
     <t>2,3,4,22,102,105,120,121,122</t>
   </si>
   <si>
-    <t>108,109,112,113,114,115,116,120,121,130,131,133,137,138,141,142</t>
+    <t>108,109,112,113,114,115,116,120,121</t>
   </si>
   <si>
-    <t>112,113,114,115,116,121,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
+    <t>112,113,114,115,116,121,123,124,125</t>
   </si>
   <si>
-    <t>103,107,110,111,117,118,143,144,145,146,147,148,149,150,151,152,153,154,155</t>
+    <t>103,107,110,111,117,118,119,126,127</t>
   </si>
   <si>
     <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
@@ -52,9 +52,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -65,17 +65,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,9 +79,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,17 +108,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,39 +177,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,9 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,22 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +225,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -237,6 +315,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -249,163 +339,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,21 +416,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,6 +449,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -471,24 +471,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,151 +498,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,10 +994,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="75.25" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -31,7 +31,7 @@
     <t>SellRelicList</t>
   </si>
   <si>
-    <t>2,3,4,22,102,105,120,121,122</t>
+    <t>22,102,105,120,121,122,80,81,82,83</t>
   </si>
   <si>
     <t>108,109,112,113,114,115,116,120,121,130,131,133,137,138,141,142</t>
@@ -51,8 +51,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -66,18 +66,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,6 +88,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -96,15 +162,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,55 +193,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,39 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,25 +225,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,19 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,25 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,97 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,32 +449,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,25 +502,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -522,10 +522,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +534,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +994,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -31,7 +31,7 @@
     <t>SellRelicList</t>
   </si>
   <si>
-    <t>22,102,105,120,121,122,80,81,82,83</t>
+    <t>2,3,4,22,102,105,120,121,122</t>
   </si>
   <si>
     <t>108,109,112,113,114,115,116,120,121,130,131,133,137,138,141,142</t>
@@ -51,8 +51,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -66,6 +66,67 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -73,6 +134,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -81,82 +170,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,46 +195,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +225,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -237,103 +249,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,61 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,21 +416,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,26 +434,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,16 +493,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -522,10 +522,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +534,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +994,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -31,16 +31,16 @@
     <t>SellRelicList</t>
   </si>
   <si>
-    <t>2,3,4,22,102,105,120,121,122</t>
+    <t>22,102,105,120,121,122,80,81,82,83</t>
   </si>
   <si>
-    <t>108,109,112,113,114,115,116,120,121,130,131,133,137,138,141,142</t>
+    <t>108,109,112,113,114,115,116,120,121,130,131,133,137,138,141,142,156,159,160</t>
   </si>
   <si>
-    <t>112,113,114,115,116,121,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
+    <t>112,113,114,115,116,121,130,131,132,133,134,135,136,137,138,139,140,141,142,156,159,160</t>
   </si>
   <si>
-    <t>103,107,110,111,117,118,143,144,145,146,147,148,149,150,151,152,153,154,155</t>
+    <t>103,107,110,111,117,118,143,144,145,146,147,148,149,150,151,152,153,154,155,161,162</t>
   </si>
   <si>
     <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
@@ -65,17 +65,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,39 +80,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,38 +96,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,39 +201,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +225,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,19 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,25 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,103 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,16 +454,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -466,17 +486,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -493,25 +502,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -519,148 +519,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +994,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>商店id</t>
   </si>
@@ -31,16 +31,13 @@
     <t>SellRelicList</t>
   </si>
   <si>
-    <t>22,102,105,120,121,122,80,81,82,83</t>
+    <t>80,81,82,83,112,113,116,121,151,154,159.163.166</t>
   </si>
   <si>
-    <t>108,109,112,113,114,115,116,120,121,130,131,133,137,138,141,142,156,159,160</t>
+    <t>80,81,82,83,112,113,116,121,151,154,159.163.166,115,118,119,131,133,134,136,137,138,139,142,156,158,160,168</t>
   </si>
   <si>
-    <t>112,113,114,115,116,121,130,131,132,133,134,135,136,137,138,139,140,141,142,156,159,160</t>
-  </si>
-  <si>
-    <t>103,107,110,111,117,118,143,144,145,146,147,148,149,150,151,152,153,154,155,161,162</t>
+    <t>115,118,119,131,133,134,136,137,138,139,142,156,158,160,168</t>
   </si>
   <si>
     <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
@@ -51,9 +48,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -67,7 +64,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,7 +78,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,30 +191,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,96 +207,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,31 +222,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,151 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,56 +419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,9 +448,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,16 +471,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,144 +537,143 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -994,7 +996,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1022,69 +1024,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:3">
-      <c r="A4">
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:3">
-      <c r="A5">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:3">
-      <c r="A6">
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:3">
-      <c r="A7">
+    <row r="7" s="3" customFormat="1" spans="1:3">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:3">
-      <c r="A8">
+    <row r="8" s="3" customFormat="1" spans="1:3">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
         <v>11</v>
       </c>
     </row>
@@ -1093,7 +1095,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -1104,7 +1106,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -1115,7 +1117,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -1126,7 +1128,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1137,7 +1139,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1148,7 +1150,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>11</v>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -31,10 +31,10 @@
     <t>SellRelicList</t>
   </si>
   <si>
-    <t>80,81,82,83,112,113,116,121,151,154,159.163.166</t>
+    <t>80,81,82,83,112,113,116,121,151,154,159,163,166</t>
   </si>
   <si>
-    <t>80,81,82,83,112,113,116,121,151,154,159.163.166,115,118,119,131,133,134,136,137,138,139,142,156,158,160,168</t>
+    <t>80,81,82,83,112,113,116,121,151,154,159,163,166,115,118,119,131,133,134,136,137,138,139,142,156,158,160,168</t>
   </si>
   <si>
     <t>115,118,119,131,133,134,136,137,138,139,142,156,158,160,168</t>
@@ -48,9 +48,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -62,6 +62,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -78,21 +116,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -100,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,22 +161,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,45 +183,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,24 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,175 +240,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +419,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,22 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,194 +515,155 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,7 +996,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD2534-0B35-4230-9CD3-73BBC15A9721}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>商店id</t>
   </si>
@@ -37,10 +31,13 @@
     <t>SellRelicList</t>
   </si>
   <si>
-    <t>80,81,82,83,112,113,116,121,151,154,159,163,166</t>
+    <t>80,81,82,83,116,151,154,159,163,166,131,132,133,134,141,142</t>
   </si>
   <si>
-    <t>80,81,82,83,112,113,116,121,151,154,159,163,166,115,118,119,131,133,134,136,137,138,139,142,156,158,160,168</t>
+    <t>4,5,6,7,9,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37</t>
+  </si>
+  <si>
+    <t>4,5,6,7,9,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37</t>
   </si>
   <si>
     <t>115,118,119,131,133,134,136,137,138,139,142,156,158,160,168</t>
@@ -48,19 +45,18 @@
   <si>
     <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
   </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +65,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,8 +234,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -109,30 +429,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -390,25 +995,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="75.25" customWidth="1"/>
     <col min="3" max="3" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -427,141 +1032,141 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\magic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBDBBED-B063-4E5F-BE38-6DD017FA595B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="480" windowWidth="28170" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>商店id</t>
   </si>
@@ -31,79 +25,74 @@
     <t>圣遗物售卖池</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>SellCardList</t>
   </si>
   <si>
     <t>SellRelicList</t>
   </si>
   <si>
-    <t>4,5,6,7,9,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37</t>
-  </si>
-  <si>
-    <t>4,5,6,7,9,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>81,132,181,4003,163,159,171,175,169,120</t>
+  </si>
+  <si>
+    <t>25,26,28,31,32,33,34,35,37</t>
   </si>
   <si>
     <t>第1关普通商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,166,173,131,184,139,141,158,177,179</t>
+  </si>
+  <si>
+    <t>第1关高级商店</t>
+  </si>
+  <si>
+    <t>131,133,4014,140,142,4018,4008,4011,4012,125</t>
+  </si>
+  <si>
+    <t>13,14,23,15,16,36,18,49,50</t>
+  </si>
+  <si>
+    <t>第2关普通商店</t>
+  </si>
+  <si>
+    <t>134,160,4007,145,4030,162,154,4020,4023,125</t>
   </si>
   <si>
     <t>第2关高级商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1关高级商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第2关普通商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>144,4031,4032,161,153,152,4019,4021,4026</t>
+  </si>
+  <si>
+    <t>19,51,52,53,54,55,56,57,58</t>
   </si>
   <si>
     <t>第3关普通商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第3关高级商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第4关普通商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第4关高级商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81,132,181,4003,163,159,171,175,169,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180,166,173,131,184,139,141,158,177,179</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131,133,4014,140,142,4018,4008,4011,4012,125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>134,160,4007,145,4030,162,154,4020,4023,125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>144,4031,4032,161,153,152,4019,4021,4026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,29 +101,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -142,27 +454,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -420,26 +1018,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="75.25" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,132 +1048,132 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" s="1" customFormat="1" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="1" customFormat="1" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="28455" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>商店id</t>
   </si>
   <si>
-    <t>卡牌售卖池</t>
-  </si>
-  <si>
-    <t>圣遗物售卖池</t>
+    <t>战士卡牌售卖池</t>
+  </si>
+  <si>
+    <t>战士圣遗物售卖池</t>
+  </si>
+  <si>
+    <t>魔女卡牌售卖池</t>
+  </si>
+  <si>
+    <t>魔女圣遗物售卖池</t>
+  </si>
+  <si>
+    <t>机器人卡牌售卖池</t>
+  </si>
+  <si>
+    <t>机器人圣遗物售卖池</t>
   </si>
   <si>
     <t>备注</t>
@@ -34,6 +46,18 @@
     <t>SellRelicList</t>
   </si>
   <si>
+    <t>SellCardList1</t>
+  </si>
+  <si>
+    <t>SellRelicList1</t>
+  </si>
+  <si>
+    <t>SellCardList2</t>
+  </si>
+  <si>
+    <t>SellRelicList2</t>
+  </si>
+  <si>
     <t>81,132,181,4003,163,159,171,175,169,120</t>
   </si>
   <si>
@@ -80,6 +104,12 @@
   </si>
   <si>
     <t>第4关高级商店</t>
+  </si>
+  <si>
+    <t>25,26,28</t>
+  </si>
+  <si>
+    <t>诅咒遗物</t>
   </si>
 </sst>
 </file>
@@ -87,12 +117,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +134,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,42 +142,6 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,55 +153,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,17 +176,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,8 +238,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,11 +478,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,15 +528,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,30 +549,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -538,17 +558,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,141 +593,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1024,20 +1047,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="75.25" customWidth="1"/>
-    <col min="3" max="3" width="79" customWidth="1"/>
-    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
+    <col min="4" max="4" width="45.25" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
+    <col min="6" max="6" width="45.25" customWidth="1"/>
+    <col min="7" max="7" width="36.625" customWidth="1"/>
+    <col min="8" max="8" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,125 +1077,256 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+    <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:4">
+    <row r="7" s="1" customFormat="1" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
+    <row r="8" s="1" customFormat="1" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
+    <row r="9" s="1" customFormat="1" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:4">
+    <row r="10" s="1" customFormat="1" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -132,6 +132,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -139,7 +146,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,16 +236,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,97 +261,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -290,67 +290,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,109 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,17 +478,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,17 +526,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,29 +569,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="11670"/>
+    <workbookView windowWidth="28440" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>商店id</t>
   </si>
@@ -64,10 +64,22 @@
     <t>25,26,28,31,32,33,34,35,37</t>
   </si>
   <si>
+    <t>301,350,351,358,359,4081,4082,4083,4073,25</t>
+  </si>
+  <si>
+    <t>38,39,63,66,69,7,9,29,35</t>
+  </si>
+  <si>
     <t>第1关普通商店</t>
   </si>
   <si>
     <t>180,166,173,131,184,139,141,158,177,179</t>
+  </si>
+  <si>
+    <t>4084,4085,4086,33,302,304,305,310,311,352</t>
+  </si>
+  <si>
+    <t>38,39,63,66,69,7,9,64,65</t>
   </si>
   <si>
     <t>第1关高级商店</t>
@@ -131,6 +143,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -139,6 +205,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -146,26 +219,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -173,10 +233,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,80 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,45 +487,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,17 +510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +534,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -575,16 +572,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,7 +1062,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1121,10 +1133,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -1133,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
@@ -1141,25 +1153,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -1167,25 +1179,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:8">
@@ -1193,25 +1205,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:8">
@@ -1219,25 +1231,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:8">
@@ -1245,25 +1257,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:8">
@@ -1271,25 +1283,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:8">
@@ -1297,25 +1309,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1323,10 +1335,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\magic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C230867-A56F-478A-9483-22201D7F40E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="795" windowWidth="28170" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>商店id</t>
   </si>
@@ -67,19 +61,31 @@
     <t>81,132,181,4003,163,159,171,175,169,120</t>
   </si>
   <si>
+    <t>25,26,28,31,32,33,34,35,37,75,67,72,48</t>
+  </si>
+  <si>
+    <t>301,350,351,4216,4150,4081,4082,4083,4154</t>
+  </si>
+  <si>
+    <t>38,39,63,66,69,7,9,29,35,68,71,78,79</t>
+  </si>
+  <si>
     <t>25,26,28,31,32,33,34,35,37</t>
   </si>
   <si>
-    <t>301,350,351,358,359,4081,4082,4083,4073,25</t>
-  </si>
-  <si>
     <t>第1关普通商店</t>
   </si>
   <si>
     <t>180,166,173,131,184,139,141,158,177,179</t>
   </si>
   <si>
-    <t>4084,4085,4086,33,302,304,305,310,311,352</t>
+    <t>25,26,28,31,32,33,34,35,37,14,73,74</t>
+  </si>
+  <si>
+    <t>4084,4085,4086,4217,306,304,305,310,4151,352,4163</t>
+  </si>
+  <si>
+    <t>38,39,63,66,69,7,9,64,65,82,80,77,40</t>
   </si>
   <si>
     <t>第1关高级商店</t>
@@ -88,51 +94,14 @@
     <t>131,133,4014,140,142,4018,4008,4011,4012,125</t>
   </si>
   <si>
-    <t>13,14,23,15,16,36,18,49,50</t>
-  </si>
-  <si>
-    <t>第2关普通商店</t>
-  </si>
-  <si>
-    <t>134,160,4007,145,4030,162,154,4020,4023,125</t>
-  </si>
-  <si>
-    <t>第2关高级商店</t>
-  </si>
-  <si>
-    <t>144,4031,4032,161,153,152,4019,4021,4026</t>
-  </si>
-  <si>
-    <t>19,51,52,53,54,55,56,57,58</t>
-  </si>
-  <si>
-    <t>第3关普通商店</t>
-  </si>
-  <si>
-    <t>第3关高级商店</t>
-  </si>
-  <si>
-    <t>第4关普通商店</t>
-  </si>
-  <si>
-    <t>第4关高级商店</t>
-  </si>
-  <si>
-    <t>25,26,28</t>
-  </si>
-  <si>
-    <t>诅咒遗物</t>
-  </si>
-  <si>
-    <t>25,26,28,31,32,33,34,35,37,75,67,72,48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,26,28,31,32,33,34,35,37,14,73,74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>13,14,23,15,16,36,18,49,50</t>
     </r>
     <r>
@@ -140,44 +109,75 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>,73,74</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,39,63,66,69,7,9,29,35,77,81,73,64</t>
+  </si>
+  <si>
+    <t>13,14,23,15,16,36,18,49,50</t>
+  </si>
+  <si>
+    <t>第2关普通商店</t>
+  </si>
+  <si>
+    <t>134,160,4007,145,4030,162,154,4020,4023,125</t>
   </si>
   <si>
     <t>13,14,23,15,16,36,18,49,50,19,58,55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>308,311,312,4243,4239,4246,305,4250,4244,352</t>
+  </si>
+  <si>
+    <t>38,39,63,66,69,7,9,64,65,81,46,53,45,4</t>
+  </si>
+  <si>
+    <t>第2关高级商店</t>
+  </si>
+  <si>
+    <t>144,4031,4032,161,153,152,4019,4021,4026</t>
   </si>
   <si>
     <t>19,51,52,53,54,55,56,57,58,19,46,45,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38,39,63,66,69,7,9,29,35,68,71,78,79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38,39,63,66,69,7,9,29,35,77,81,73,64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38,39,63,66,69,7,9,64,65,82,80,77,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38,39,63,66,69,7,9,64,65,81,46,53,45,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,51,52,53,54,55,56,57,58</t>
+  </si>
+  <si>
+    <t>第3关普通商店</t>
+  </si>
+  <si>
+    <t>第3关高级商店</t>
+  </si>
+  <si>
+    <t>第4关普通商店</t>
+  </si>
+  <si>
+    <t>第4关高级商店</t>
+  </si>
+  <si>
+    <t>25,26,28</t>
+  </si>
+  <si>
+    <t>诅咒遗物</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -195,20 +196,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -216,28 +539,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -495,19 +1104,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
@@ -518,7 +1127,7 @@
     <col min="8" max="8" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +1153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -564,228 +1173,228 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" s="1" customFormat="1" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="1" customFormat="1" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/shop.xlsx
+++ b/Client/Assets/Data/shop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>商店id</t>
   </si>
@@ -58,92 +58,88 @@
     <t>SellRelicList2</t>
   </si>
   <si>
+    <t>82,83,182,141,159,163,169,171,4257</t>
+  </si>
+  <si>
+    <t>25,26,28,31,36,33,34,35,37</t>
+  </si>
+  <si>
+    <t>301,350,351,4216,4150,4081,4082,4083,4154</t>
+  </si>
+  <si>
+    <t>38,39,63,66,69,7,9,29,35,68,71,78,79</t>
+  </si>
+  <si>
     <t>81,132,181,4003,163,159,171,175,169,120</t>
   </si>
   <si>
-    <t>25,26,28,31,32,33,34,35,37,75,67,72,48</t>
-  </si>
-  <si>
-    <t>301,350,351,4216,4150,4081,4082,4083,4154</t>
-  </si>
-  <si>
-    <t>38,39,63,66,69,7,9,29,35,68,71,78,79</t>
-  </si>
-  <si>
     <t>25,26,28,31,32,33,34,35,37</t>
   </si>
   <si>
     <t>第1关普通商店</t>
   </si>
   <si>
+    <t>132,83,182,141,4004,163,169,175,4257,4018,184,177</t>
+  </si>
+  <si>
+    <t>25,26,28,31,36,33,34,35,37,14,36,49</t>
+  </si>
+  <si>
+    <t>4084,4085,4086,4217,306,304,305,310,4151,352,4163</t>
+  </si>
+  <si>
+    <t>38,39,63,66,69,7,9,64,65,82,80,77,40</t>
+  </si>
+  <si>
     <t>180,166,173,131,184,139,141,158,177,179</t>
   </si>
   <si>
-    <t>25,26,28,31,32,33,34,35,37,14,73,74</t>
-  </si>
-  <si>
-    <t>4084,4085,4086,4217,306,304,305,310,4151,352,4163</t>
-  </si>
-  <si>
-    <t>38,39,63,66,69,7,9,64,65,82,80,77,40</t>
-  </si>
-  <si>
     <t>第1关高级商店</t>
   </si>
   <si>
+    <t>134,137,4015,170,4011,4259,139,143,160</t>
+  </si>
+  <si>
+    <t>15,16,36,18,49,50,13,14,23</t>
+  </si>
+  <si>
+    <t>38,39,63,66,69,7,9,29,35,77,81,73,64</t>
+  </si>
+  <si>
     <t>131,133,4014,140,142,4018,4008,4011,4012,125</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13,14,23,15,16,36,18,49,50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,73,74</t>
-    </r>
-  </si>
-  <si>
-    <t>38,39,63,66,69,7,9,29,35,77,81,73,64</t>
-  </si>
-  <si>
     <t>13,14,23,15,16,36,18,49,50</t>
   </si>
   <si>
     <t>第2关普通商店</t>
   </si>
   <si>
+    <t>134,4013,4015,170,4009,4259,139,143,4017,4026,4032,154</t>
+  </si>
+  <si>
+    <t>15,16,36,18,49,50,13,14,23,19,55,58</t>
+  </si>
+  <si>
+    <t>308,311,312,4243,4239,4246,305,4250,4244,352</t>
+  </si>
+  <si>
+    <t>38,39,63,66,69,7,9,64,65,81,46,53,45,4</t>
+  </si>
+  <si>
     <t>134,160,4007,145,4030,162,154,4020,4023,125</t>
   </si>
   <si>
-    <t>13,14,23,15,16,36,18,49,50,19,58,55</t>
-  </si>
-  <si>
-    <t>308,311,312,4243,4239,4246,305,4250,4244,352</t>
-  </si>
-  <si>
-    <t>38,39,63,66,69,7,9,64,65,81,46,53,45,4</t>
-  </si>
-  <si>
     <t>第2关高级商店</t>
   </si>
   <si>
+    <t>4030,4031,150,4213,152,155,4024,4020,4008</t>
+  </si>
+  <si>
+    <t>53,54,55,19,51,52,56,57,58</t>
+  </si>
+  <si>
     <t>144,4031,4032,161,153,152,4019,4021,4026</t>
-  </si>
-  <si>
-    <t>19,51,52,53,54,55,56,57,58,19,46,45,4</t>
   </si>
   <si>
     <t>19,51,52,53,54,55,56,57,58</t>
@@ -177,7 +173,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,39 +183,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,104 +320,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -346,6 +335,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,13 +389,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,157 +497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +526,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,26 +559,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,9 +609,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,33 +622,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,141 +644,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1113,12 +1101,12 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
     <col min="4" max="4" width="45.25" customWidth="1"/>
     <col min="5" max="5" width="36.625" customWidth="1"/>
@@ -1190,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
@@ -1204,25 +1192,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -1230,25 +1218,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:8">
@@ -1256,25 +1244,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:8">
@@ -1282,25 +1270,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:8">
@@ -1308,25 +1296,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:8">
@@ -1334,25 +1322,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:8">
@@ -1360,25 +1348,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1386,10 +1374,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
